--- a/biology/Botanique/Bromeliaceae/Bromeliaceae.xlsx
+++ b/biology/Botanique/Bromeliaceae/Bromeliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bromeliaceae (Broméliacées) sont une famille de plantes monocotylédones, originaires majoritairement des régions tropicales d'Amérique, minoritairement des régions subtropicales d'Amérique et une espèce (Pitcairnia feliciana) originaire des régions tropicales d'Afrique de l'Ouest. De nombreuses espèces sont épiphytes comme les Tillandsia et vivent pendues aux branches des arbres de la forêt tropicale. D'autres sont terrestres comme le genre Ananas (qui est cultivé pour son fruit, l'ananas).
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Bromelia donné en l'honneur du médecin et botaniste suédois Olof Bromelius (1639–1705),
-connu pour posséder une grande bibliothèque botanique[1].
+connu pour posséder une grande bibliothèque botanique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette famille comporte environ 3 300 espèces regroupées en 48 ou 58 genres (selon les auteurs), plus huit nothogenres, et entre 3 et 8 sous-familles[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette famille comporte environ 3 300 espèces regroupées en 48 ou 58 genres (selon les auteurs), plus huit nothogenres, et entre 3 et 8 sous-familles :
 Brocchinioideae : genre Brocchinia
 Lindmanioideae (en) : genre Lindmania
 Tillandsioideae (en) : genre Tillandsia (notamment)
@@ -581,7 +597,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont cultivées comme plantes d'appartement pour leurs inflorescences colorées ainsi que pour leur feuillage original. Il faut alors leur fournir un endroit éclairé, sans soleil direct, avec des températures comprises entre 18 et 25 °C. L'eau d'arrosage doit être non calcaire, et il vaut mieux laisser sécher la terre entre deux arrosages. La plante apprécie également des vaporisations de son feuillage. Le rempotage de la plante peut se faire après floraison, quand de nouvelles pousses apparaissent.
 			Broméliacées de la forêt de la côte atlantique du Brésil dans le Paraná
@@ -615,7 +633,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Région subtropicale d'Amérique.
 </t>
@@ -646,9 +666,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (21 mai 2010)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (21 mai 2010) :
 Abromeitiella Mez
 Acanthostachys Klotzsch
 Aechmea Ruiz &amp; Pav.
@@ -700,7 +722,7 @@
 Tillandsia L.
 Vriesea Lindl.
 Wittrockia Lindm.
-Selon NCBI  (19 avr. 2010)[4] :
+Selon NCBI  (19 avr. 2010) :
 Abromeitiella
 Acanthostachys
 Aechmea
@@ -755,7 +777,7 @@
 Viridantha
 Vriesea
 Werauhia
-Selon DELTA Angio           (19 avr. 2010)[5] :
+Selon DELTA Angio           (19 avr. 2010) :
 Abromeitiella
 Acanthostachys
 Aechmea
@@ -820,7 +842,7 @@
 Vriesia
 Werhauia
 Wittrockia
-Selon ITIS      (19 avr. 2010)[6] :
+Selon ITIS      (19 avr. 2010) :
 Aechmea Ruiz &amp; Pavón
 Ananas P. Mill.
 Billbergia Thunb.
